--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/15/seed5/result_data_RandomForest.xlsx
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.018599999999997</v>
+        <v>5.074599999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.220700000000004</v>
+        <v>5.789000000000002</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.616599999999998</v>
+        <v>6.589099999999995</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.420800000000007</v>
+        <v>9.375600000000009</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -964,7 +964,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.807599999999997</v>
+        <v>4.766299999999995</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.433200000000003</v>
+        <v>5.880000000000006</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.080900000000005</v>
+        <v>4.963200000000004</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.993499999999998</v>
+        <v>6.474599999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1216,7 +1216,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.791999999999996</v>
+        <v>4.617299999999997</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.514899999999994</v>
+        <v>5.611499999999993</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.340199999999995</v>
+        <v>5.283999999999993</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1440,7 +1440,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.214500000000004</v>
+        <v>5.094800000000006</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.263399999999998</v>
+        <v>5.481999999999998</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.311800000000005</v>
+        <v>5.184500000000003</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>4.745399999999993</v>
+        <v>4.969899999999996</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.730599999999998</v>
+        <v>5.5226</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.473099999999999</v>
+        <v>5.515699999999997</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>9.565900000000005</v>
+        <v>9.427200000000001</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
